--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H2">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.19426221574991</v>
+        <v>0.7633283333333334</v>
       </c>
       <c r="N2">
-        <v>4.19426221574991</v>
+        <v>2.289985</v>
       </c>
       <c r="O2">
-        <v>0.5495410685546404</v>
+        <v>0.07247598971834317</v>
       </c>
       <c r="P2">
-        <v>0.5495410685546404</v>
+        <v>0.07247598971834318</v>
       </c>
       <c r="Q2">
-        <v>71.42030939518149</v>
+        <v>61.87415480034389</v>
       </c>
       <c r="R2">
-        <v>71.42030939518149</v>
+        <v>556.8673932030949</v>
       </c>
       <c r="S2">
-        <v>0.05896084589707312</v>
+        <v>0.02569865880442611</v>
       </c>
       <c r="T2">
-        <v>0.05896084589707312</v>
+        <v>0.02569865880442612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H3">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.82147583918796</v>
+        <v>4.451606333333333</v>
       </c>
       <c r="N3">
-        <v>2.82147583918796</v>
+        <v>13.354819</v>
       </c>
       <c r="O3">
-        <v>0.369675706432014</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="P3">
-        <v>0.369675706432014</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="Q3">
-        <v>48.04436800091778</v>
+        <v>360.8399784874459</v>
       </c>
       <c r="R3">
-        <v>48.04436800091778</v>
+        <v>3247.559806387012</v>
       </c>
       <c r="S3">
-        <v>0.0396628998377806</v>
+        <v>0.1498703864330409</v>
       </c>
       <c r="T3">
-        <v>0.0396628998377806</v>
+        <v>0.1498703864330409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H4">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.616561796247643</v>
+        <v>4.617562</v>
       </c>
       <c r="N4">
-        <v>0.616561796247643</v>
+        <v>13.852686</v>
       </c>
       <c r="O4">
-        <v>0.08078322501334553</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="P4">
-        <v>0.08078322501334553</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="Q4">
-        <v>10.49887488767373</v>
+        <v>374.2920752601247</v>
       </c>
       <c r="R4">
-        <v>10.49887488767373</v>
+        <v>3368.628677341122</v>
       </c>
       <c r="S4">
-        <v>0.008667318156235058</v>
+        <v>0.1554575471188022</v>
       </c>
       <c r="T4">
-        <v>0.008667318156235058</v>
+        <v>0.1554575471188022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.863246657766</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H5">
-        <v>122.863246657766</v>
+        <v>243.175127</v>
       </c>
       <c r="I5">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J5">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.19426221574991</v>
+        <v>0.699658</v>
       </c>
       <c r="N5">
-        <v>4.19426221574991</v>
+        <v>2.098974</v>
       </c>
       <c r="O5">
-        <v>0.5495410685546404</v>
+        <v>0.06643066135501745</v>
       </c>
       <c r="P5">
-        <v>0.5495410685546404</v>
+        <v>0.06643066135501746</v>
       </c>
       <c r="Q5">
-        <v>515.3206731610293</v>
+        <v>56.71314100218866</v>
       </c>
       <c r="R5">
-        <v>515.3206731610293</v>
+        <v>510.418269019698</v>
       </c>
       <c r="S5">
-        <v>0.4254216070348378</v>
+        <v>0.02355509606628929</v>
       </c>
       <c r="T5">
-        <v>0.4254216070348378</v>
+        <v>0.0235550960662893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H6">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.82147583918796</v>
+        <v>0.7633283333333334</v>
       </c>
       <c r="N6">
-        <v>2.82147583918796</v>
+        <v>2.289985</v>
       </c>
       <c r="O6">
-        <v>0.369675706432014</v>
+        <v>0.07247598971834317</v>
       </c>
       <c r="P6">
-        <v>0.369675706432014</v>
+        <v>0.07247598971834318</v>
       </c>
       <c r="Q6">
-        <v>346.6556819690776</v>
+        <v>93.90331726874001</v>
       </c>
       <c r="R6">
-        <v>346.6556819690776</v>
+        <v>845.1298554186601</v>
       </c>
       <c r="S6">
-        <v>0.2861806734948497</v>
+        <v>0.03900157212458136</v>
       </c>
       <c r="T6">
-        <v>0.2861806734948497</v>
+        <v>0.03900157212458136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H7">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.616561796247643</v>
+        <v>4.451606333333333</v>
       </c>
       <c r="N7">
-        <v>0.616561796247643</v>
+        <v>13.354819</v>
       </c>
       <c r="O7">
-        <v>0.08078322501334553</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="P7">
-        <v>0.08078322501334553</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="Q7">
-        <v>75.75278405212941</v>
+        <v>547.6288297187961</v>
       </c>
       <c r="R7">
-        <v>75.75278405212941</v>
+        <v>4928.659467469163</v>
       </c>
       <c r="S7">
-        <v>0.06253750879260681</v>
+        <v>0.227450807074819</v>
       </c>
       <c r="T7">
-        <v>0.06253750879260681</v>
+        <v>0.227450807074819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H8">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J8">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.19426221574991</v>
+        <v>4.617562</v>
       </c>
       <c r="N8">
-        <v>4.19426221574991</v>
+        <v>13.852686</v>
       </c>
       <c r="O8">
-        <v>0.5495410685546404</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="P8">
-        <v>0.5495410685546404</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="Q8">
-        <v>0.9954828297583553</v>
+        <v>568.044405741624</v>
       </c>
       <c r="R8">
-        <v>0.9954828297583553</v>
+        <v>5112.399651674617</v>
       </c>
       <c r="S8">
-        <v>0.0008218181945109943</v>
+        <v>0.2359301620526678</v>
       </c>
       <c r="T8">
-        <v>0.0008218181945109943</v>
+        <v>0.2359301620526678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H9">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J9">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.82147583918796</v>
+        <v>0.699658</v>
       </c>
       <c r="N9">
-        <v>2.82147583918796</v>
+        <v>2.098974</v>
       </c>
       <c r="O9">
-        <v>0.369675706432014</v>
+        <v>0.06643066135501745</v>
       </c>
       <c r="P9">
-        <v>0.369675706432014</v>
+        <v>0.06643066135501746</v>
       </c>
       <c r="Q9">
-        <v>0.6696602663378012</v>
+        <v>86.070704157816</v>
       </c>
       <c r="R9">
-        <v>0.6696602663378012</v>
+        <v>774.636337420344</v>
       </c>
       <c r="S9">
-        <v>0.0005528362464584883</v>
+        <v>0.03574839391900865</v>
       </c>
       <c r="T9">
-        <v>0.0005528362464584883</v>
+        <v>0.03574839391900866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H10">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.616561796247643</v>
+        <v>0.7633283333333334</v>
       </c>
       <c r="N10">
-        <v>0.616561796247643</v>
+        <v>2.289985</v>
       </c>
       <c r="O10">
-        <v>0.08078322501334553</v>
+        <v>0.07247598971834317</v>
       </c>
       <c r="P10">
-        <v>0.08078322501334553</v>
+        <v>0.07247598971834318</v>
       </c>
       <c r="Q10">
-        <v>0.1463372221566644</v>
+        <v>0.2766810765555556</v>
       </c>
       <c r="R10">
-        <v>0.1463372221566644</v>
+        <v>2.490129689</v>
       </c>
       <c r="S10">
-        <v>0.0001208083033754956</v>
+        <v>0.0001149160357339217</v>
       </c>
       <c r="T10">
-        <v>0.0001208083033754956</v>
+        <v>0.0001149160357339217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H11">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I11">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J11">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.19426221574991</v>
+        <v>4.451606333333333</v>
       </c>
       <c r="N11">
-        <v>4.19426221574991</v>
+        <v>13.354819</v>
       </c>
       <c r="O11">
-        <v>0.5495410685546404</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="P11">
-        <v>0.5495410685546404</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="Q11">
-        <v>77.93229401490973</v>
+        <v>1.613558908955556</v>
       </c>
       <c r="R11">
-        <v>77.93229401490973</v>
+        <v>14.5220301806</v>
       </c>
       <c r="S11">
-        <v>0.06433679742821856</v>
+        <v>0.0006701715764182109</v>
       </c>
       <c r="T11">
-        <v>0.06433679742821856</v>
+        <v>0.0006701715764182109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H12">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I12">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J12">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.82147583918796</v>
+        <v>4.617562</v>
       </c>
       <c r="N12">
-        <v>2.82147583918796</v>
+        <v>13.852686</v>
       </c>
       <c r="O12">
-        <v>0.369675706432014</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="P12">
-        <v>0.369675706432014</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="Q12">
-        <v>52.42497329563032</v>
+        <v>1.673712306266667</v>
       </c>
       <c r="R12">
-        <v>52.42497329563032</v>
+        <v>15.0634107564</v>
       </c>
       <c r="S12">
-        <v>0.04327929685292534</v>
+        <v>0.0006951555400523573</v>
       </c>
       <c r="T12">
-        <v>0.04327929685292534</v>
+        <v>0.0006951555400523573</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H13">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I13">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J13">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.616561796247643</v>
+        <v>0.699658</v>
       </c>
       <c r="N13">
-        <v>0.616561796247643</v>
+        <v>2.098974</v>
       </c>
       <c r="O13">
-        <v>0.08078322501334553</v>
+        <v>0.06643066135501745</v>
       </c>
       <c r="P13">
-        <v>0.08078322501334553</v>
+        <v>0.06643066135501746</v>
       </c>
       <c r="Q13">
-        <v>11.45614477871673</v>
+        <v>0.2536027030666667</v>
       </c>
       <c r="R13">
-        <v>11.45614477871673</v>
+        <v>2.2824243276</v>
       </c>
       <c r="S13">
-        <v>0.009457589761128187</v>
+        <v>0.0001053307210259336</v>
       </c>
       <c r="T13">
-        <v>0.009457589761128187</v>
+        <v>0.0001053307210259336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H14">
+        <v>72.491192</v>
+      </c>
+      <c r="I14">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J14">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.7633283333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.289985</v>
+      </c>
+      <c r="O14">
+        <v>0.07247598971834317</v>
+      </c>
+      <c r="P14">
+        <v>0.07247598971834318</v>
+      </c>
+      <c r="Q14">
+        <v>18.44486025690222</v>
+      </c>
+      <c r="R14">
+        <v>166.00374231212</v>
+      </c>
+      <c r="S14">
+        <v>0.007660842753601784</v>
+      </c>
+      <c r="T14">
+        <v>0.007660842753601787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H15">
+        <v>72.491192</v>
+      </c>
+      <c r="I15">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J15">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.451606333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.354819</v>
+      </c>
+      <c r="O15">
+        <v>0.4226681504613934</v>
+      </c>
+      <c r="P15">
+        <v>0.4226681504613934</v>
+      </c>
+      <c r="Q15">
+        <v>107.5674164726942</v>
+      </c>
+      <c r="R15">
+        <v>968.1067482542479</v>
+      </c>
+      <c r="S15">
+        <v>0.04467678537711531</v>
+      </c>
+      <c r="T15">
+        <v>0.04467678537711532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H16">
+        <v>72.491192</v>
+      </c>
+      <c r="I16">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J16">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.617562</v>
+      </c>
+      <c r="N16">
+        <v>13.852686</v>
+      </c>
+      <c r="O16">
+        <v>0.438425198465246</v>
+      </c>
+      <c r="P16">
+        <v>0.438425198465246</v>
+      </c>
+      <c r="Q16">
+        <v>111.5775245046347</v>
+      </c>
+      <c r="R16">
+        <v>1004.197720541712</v>
+      </c>
+      <c r="S16">
+        <v>0.04634233375372367</v>
+      </c>
+      <c r="T16">
+        <v>0.04634233375372367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H17">
+        <v>72.491192</v>
+      </c>
+      <c r="I17">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J17">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.699658</v>
+      </c>
+      <c r="N17">
+        <v>2.098974</v>
+      </c>
+      <c r="O17">
+        <v>0.06643066135501745</v>
+      </c>
+      <c r="P17">
+        <v>0.06643066135501746</v>
+      </c>
+      <c r="Q17">
+        <v>16.90634747077867</v>
+      </c>
+      <c r="R17">
+        <v>152.157127237008</v>
+      </c>
+      <c r="S17">
+        <v>0.007021840648693572</v>
+      </c>
+      <c r="T17">
+        <v>0.007021840648693575</v>
       </c>
     </row>
   </sheetData>
